--- a/tables/log-odds/binaryattitude3.xlsx
+++ b/tables/log-odds/binaryattitude3.xlsx
@@ -31331,13 +31331,13 @@
         <v>-0.24607017630475519</v>
       </c>
       <c r="C3" s="43">
-        <v>0.42175134362466976</v>
+        <v>0.42175134362466987</v>
       </c>
       <c r="D3" s="46">
-        <v>-1.0912787563409603</v>
+        <v>-1.0912787563409605</v>
       </c>
       <c r="E3" s="49">
-        <v>0.59913840373144978</v>
+        <v>0.59913840373145</v>
       </c>
     </row>
     <row r="4">
@@ -31348,13 +31348,13 @@
         <v>-0.33201386156643742</v>
       </c>
       <c r="C4" s="61">
-        <v>0.44614541291169968</v>
+        <v>0.44614541291169973</v>
       </c>
       <c r="D4" s="65">
-        <v>-1.2261092489005085</v>
+        <v>-1.2261092489005088</v>
       </c>
       <c r="E4" s="69">
-        <v>0.56208152576763371</v>
+        <v>0.56208152576763382</v>
       </c>
     </row>
   </sheetData>
@@ -31408,13 +31408,13 @@
         <v>-0.3569190561870661</v>
       </c>
       <c r="C3" s="622">
-        <v>0.30719975979137987</v>
+        <v>0.30719975979137976</v>
       </c>
       <c r="D3" s="626">
-        <v>-0.9725611322246579</v>
+        <v>-0.97256113222465768</v>
       </c>
       <c r="E3" s="630">
-        <v>0.2587230198505257</v>
+        <v>0.25872301985052548</v>
       </c>
     </row>
   </sheetData>
@@ -31468,13 +31468,13 @@
         <v>-0.45340305109219037</v>
       </c>
       <c r="C3" s="676">
-        <v>0.3736267811311848</v>
+        <v>0.37362678113118486</v>
       </c>
       <c r="D3" s="680">
         <v>-1.2021678527152546</v>
       </c>
       <c r="E3" s="684">
-        <v>0.29536175053087388</v>
+        <v>0.29536175053087399</v>
       </c>
     </row>
   </sheetData>
@@ -31528,13 +31528,13 @@
         <v>-0.035915959878390795</v>
       </c>
       <c r="C3" s="730">
-        <v>0.29713241900575332</v>
+        <v>0.29713241900575338</v>
       </c>
       <c r="D3" s="734">
-        <v>-0.6313826341329537</v>
+        <v>-0.63138263413295381</v>
       </c>
       <c r="E3" s="738">
-        <v>0.5595507143761721</v>
+        <v>0.55955071437617221</v>
       </c>
     </row>
   </sheetData>
@@ -31648,13 +31648,13 @@
         <v>0.50331003679771369</v>
       </c>
       <c r="C3" s="838">
-        <v>0.49388307689435379</v>
+        <v>0.49388307689435312</v>
       </c>
       <c r="D3" s="842">
-        <v>-0.48645376700720533</v>
+        <v>-0.486453767007204</v>
       </c>
       <c r="E3" s="846">
-        <v>1.4930738406026327</v>
+        <v>1.4930738406026314</v>
       </c>
     </row>
   </sheetData>
@@ -31708,13 +31708,13 @@
         <v>-0.13268658965555391</v>
       </c>
       <c r="C3" s="892">
-        <v>0.34657068372425442</v>
+        <v>0.34657068372425448</v>
       </c>
       <c r="D3" s="896">
-        <v>-0.82722976041409646</v>
+        <v>-0.82722976041409657</v>
       </c>
       <c r="E3" s="900">
-        <v>0.56185658110298864</v>
+        <v>0.56185658110298875</v>
       </c>
     </row>
   </sheetData>
@@ -31828,13 +31828,13 @@
         <v>0.023928743151664392</v>
       </c>
       <c r="C3" s="1000">
-        <v>0.34170881576103934</v>
+        <v>0.3417088157610394</v>
       </c>
       <c r="D3" s="1004">
-        <v>-0.66087102647815643</v>
+        <v>-0.66087102647815654</v>
       </c>
       <c r="E3" s="1008">
-        <v>0.70872851278148519</v>
+        <v>0.7087285127814853</v>
       </c>
     </row>
   </sheetData>
@@ -31888,13 +31888,13 @@
         <v>-0.36389045021392191</v>
       </c>
       <c r="C3" s="1051">
-        <v>0.4002198715371203</v>
+        <v>0.40021987153712024</v>
       </c>
       <c r="D3" s="1054">
         <v>-1.1659489959365377</v>
       </c>
       <c r="E3" s="1057">
-        <v>0.4381680955086939</v>
+        <v>0.43816809550869379</v>
       </c>
     </row>
     <row r="4">
@@ -31965,13 +31965,13 @@
         <v>0.42535489919422337</v>
       </c>
       <c r="C3" s="1123">
-        <v>0.32655673658528556</v>
+        <v>0.3265567365852855</v>
       </c>
       <c r="D3" s="1127">
-        <v>-0.22907942520744401</v>
+        <v>-0.2290794252074439</v>
       </c>
       <c r="E3" s="1131">
-        <v>1.0797892235958908</v>
+        <v>1.0797892235958906</v>
       </c>
     </row>
   </sheetData>
@@ -32025,13 +32025,13 @@
         <v>0.36570831654698815</v>
       </c>
       <c r="C3" s="115">
-        <v>0.29634174268305169</v>
+        <v>0.29634174268305175</v>
       </c>
       <c r="D3" s="119">
-        <v>-0.22817380694779427</v>
+        <v>-0.22817380694779438</v>
       </c>
       <c r="E3" s="123">
-        <v>0.95959044004177052</v>
+        <v>0.95959044004177074</v>
       </c>
     </row>
   </sheetData>
@@ -32179,13 +32179,13 @@
         <v>-0.39104263193724925</v>
       </c>
       <c r="C3" s="1258">
-        <v>0.44388799565762049</v>
+        <v>0.44388799565762055</v>
       </c>
       <c r="D3" s="1261">
-        <v>-1.2806140539995761</v>
+        <v>-1.2806140539995763</v>
       </c>
       <c r="E3" s="1264">
-        <v>0.49852879012507761</v>
+        <v>0.49852879012507773</v>
       </c>
     </row>
     <row r="4">
@@ -32196,13 +32196,13 @@
         <v>-1.0287511244411751</v>
       </c>
       <c r="C4" s="1276">
-        <v>0.40866845221932241</v>
+        <v>0.40866845221932246</v>
       </c>
       <c r="D4" s="1280">
         <v>-1.8477410042061555</v>
       </c>
       <c r="E4" s="1284">
-        <v>-0.20976124467619484</v>
+        <v>-0.20976124467619472</v>
       </c>
     </row>
   </sheetData>
@@ -32376,13 +32376,13 @@
         <v>-0.35498096510712662</v>
       </c>
       <c r="C3" s="1435">
-        <v>0.40182392173371179</v>
+        <v>0.40182392173371173</v>
       </c>
       <c r="D3" s="1438">
         <v>-1.1602540992583554</v>
       </c>
       <c r="E3" s="1441">
-        <v>0.45029216904410219</v>
+        <v>0.45029216904410208</v>
       </c>
     </row>
     <row r="4">
@@ -32513,10 +32513,10 @@
         <v>0.6499326194324021</v>
       </c>
       <c r="C3" s="1558">
-        <v>0.45869256493502009</v>
+        <v>0.45869256493502014</v>
       </c>
       <c r="D3" s="1561">
-        <v>-0.26930782245914009</v>
+        <v>-0.2693078224591402</v>
       </c>
       <c r="E3" s="1564">
         <v>1.5691730613239443</v>
@@ -32530,10 +32530,10 @@
         <v>1.4167038030483996</v>
       </c>
       <c r="C4" s="1576">
-        <v>0.45825765007703229</v>
+        <v>0.45825765007703223</v>
       </c>
       <c r="D4" s="1580">
-        <v>0.49833495000918282</v>
+        <v>0.49833495000918293</v>
       </c>
       <c r="E4" s="1584">
         <v>2.3350726560876165</v>
@@ -32590,13 +32590,13 @@
         <v>-0.36833453134119926</v>
       </c>
       <c r="C3" s="1630">
-        <v>0.36806920904124624</v>
+        <v>0.36806920904124618</v>
       </c>
       <c r="D3" s="1634">
         <v>-1.1059617096096688</v>
       </c>
       <c r="E3" s="1638">
-        <v>0.36929264692727032</v>
+        <v>0.36929264692727021</v>
       </c>
     </row>
   </sheetData>
@@ -32710,13 +32710,13 @@
         <v>0.083973177955878622</v>
       </c>
       <c r="C3" s="1738">
-        <v>0.40266734300274465</v>
+        <v>0.40266734300274459</v>
       </c>
       <c r="D3" s="1742">
-        <v>-0.72299021018967058</v>
+        <v>-0.72299021018967047</v>
       </c>
       <c r="E3" s="1746">
-        <v>0.89093656610142791</v>
+        <v>0.8909365661014278</v>
       </c>
     </row>
   </sheetData>
@@ -33164,13 +33164,13 @@
         <v>-0.15306367537228527</v>
       </c>
       <c r="C3" s="250">
-        <v>0.41857616915606288</v>
+        <v>0.41857616915606294</v>
       </c>
       <c r="D3" s="253">
-        <v>-0.99190906357864583</v>
+        <v>-0.99190906357864594</v>
       </c>
       <c r="E3" s="256">
-        <v>0.6857817128340753</v>
+        <v>0.68578171283407541</v>
       </c>
     </row>
     <row r="4">
@@ -33301,10 +33301,10 @@
         <v>0.28988617216586182</v>
       </c>
       <c r="C3" s="376">
-        <v>0.31361135932435757</v>
+        <v>0.31361135932435752</v>
       </c>
       <c r="D3" s="380">
-        <v>-0.33860503646833301</v>
+        <v>-0.3386050364683329</v>
       </c>
       <c r="E3" s="384">
         <v>0.9183773808000566</v>
@@ -33361,13 +33361,13 @@
         <v>-0.2099360395910787</v>
       </c>
       <c r="C3" s="427">
-        <v>0.39685509056186274</v>
+        <v>0.39685509056186302</v>
       </c>
       <c r="D3" s="430">
-        <v>-1.005251413553319</v>
+        <v>-1.0052514135533195</v>
       </c>
       <c r="E3" s="433">
-        <v>0.58537933437116152</v>
+        <v>0.58537933437116219</v>
       </c>
     </row>
     <row r="4">
@@ -33378,13 +33378,13 @@
         <v>0.032371719586608491</v>
       </c>
       <c r="C4" s="445">
-        <v>0.35886046353204332</v>
+        <v>0.35886046353204365</v>
       </c>
       <c r="D4" s="449">
-        <v>-0.68680072028350569</v>
+        <v>-0.68680072028350636</v>
       </c>
       <c r="E4" s="453">
-        <v>0.75154415945672259</v>
+        <v>0.75154415945672326</v>
       </c>
     </row>
   </sheetData>
@@ -33498,13 +33498,13 @@
         <v>0.71727301180372016</v>
       </c>
       <c r="C3" s="550">
-        <v>0.4601994889671352</v>
+        <v>0.46019948896713542</v>
       </c>
       <c r="D3" s="553">
-        <v>-0.20498737333319539</v>
+        <v>-0.20498737333319583</v>
       </c>
       <c r="E3" s="556">
-        <v>1.6395333969406356</v>
+        <v>1.639533396940636</v>
       </c>
     </row>
     <row r="4">
@@ -33515,10 +33515,10 @@
         <v>1.3666245111061655</v>
       </c>
       <c r="C4" s="568">
-        <v>0.40654874421591025</v>
+        <v>0.40654874421591031</v>
       </c>
       <c r="D4" s="572">
-        <v>0.55188262110751951</v>
+        <v>0.5518826211075194</v>
       </c>
       <c r="E4" s="576">
         <v>2.1813664011048113</v>
